--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-05_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-05_beg.xlsx
@@ -876,11 +876,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">No one would offer the Infected any help. We were no volunteer army. We had nothing like the “Brave Wok” from the age of Mikhail the Huge Ears. We had no city of our own, and we hardly even had fields to hill up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“The Originium grows on our skin, and the scant few weapons we hold are stark. The snow in our mouths melts into our water, our stomachs are filled with grass seed and bark. “
+    <t xml:space="preserve">No one would offer the Infected any help. We were no volunteer army. We had nothing like the 'Brave Wok' from the age of Mikhail the Huge Ears. We had no city of our own, and we hardly even had fields to hill up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'The Originium grows on our skin, and the scant few weapons we hold are stark. The snow in our mouths melts into our water, our stomachs are filled with grass seed and bark. '
 </t>
   </si>
   <si>
@@ -1064,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] —”Aegis.”  “Aegis” are attacking the sentries here.
+    <t xml:space="preserve">[name="Talulah"] —'Aegis.'  'Aegis' are attacking the sentries here.
 </t>
   </si>
   <si>
@@ -1192,7 +1192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Fighter"] A “decision” means nothing to us. We came back with you all the way from the Northwest... and it wasn’t for any “decision.”
+    <t xml:space="preserve">[name="Infected Fighter"] A 'decision' means nothing to us. We came back with you all the way from the Northwest... and it wasn’t for any 'decision.'
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] It’s okay. Let me go. Less casualties this way, too.  Besides, I’m—*chuckle* “the Deathless.”
+    <t xml:space="preserve">[name="Talulah"] It’s okay. Let me go. Less casualties this way, too.  Besides, I’m—*chuckle* 'the Deathless.'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-05_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-05_beg.xlsx
@@ -900,7 +900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I wanted to go back south. But this time, I probably wouldn’t be going alone.
+    <t xml:space="preserve">I wanted to go back south. But this time, I probably wouldn't be going alone.
 </t>
   </si>
   <si>
@@ -908,11 +908,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The Infected should pioneer their own city. If Ursus doesn’t allow it, then Ursus should be changed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exile, abdication, leaving the country—in the end, you were still a homeless vagabond. Whenever you told of a place that’d admit the Infected, you were telling a fairytale.
+    <t xml:space="preserve">The Infected should pioneer their own city. If Ursus doesn't allow it, then Ursus should be changed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exile, abdication, leaving the country—in the end, you were still a homeless vagabond. Whenever you told of a place that'd admit the Infected, you were telling a fairytale.
 </t>
   </si>
   <si>
@@ -928,7 +928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] No doubt about it, it’s here.
+    <t xml:space="preserve">[name="Talulah"] No doubt about it, it's here.
 </t>
   </si>
   <si>
@@ -936,7 +936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] ...This city’s been derelict for over ten years, now.
+    <t xml:space="preserve">[name="Talulah"] ...This city's been derelict for over ten years, now.
 </t>
   </si>
   <si>
@@ -944,7 +944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Fighter"] Which noble’s turf was this, originally?
+    <t xml:space="preserve">[name="Infected Fighter"] Which noble's turf was this, originally?
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Fighter"] I don’t get it. Talulah, you said a few days ago, right? The Great Rebellion was carried out by the current Emperor and the old military noblemen?
+    <t xml:space="preserve">[name="Infected Fighter"] I don't get it. Talulah, you said a few days ago, right? The Great Rebellion was carried out by the current Emperor and the old military noblemen?
 </t>
   </si>
   <si>
@@ -968,23 +968,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] The principal force driving the Great Rebellion was the age before it... those Ursus military nobles who stood to gain everything from Ursus’s epoch of relentless outward expansion.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] After the new Emperor ascended, it was natural they’d spit out every city, all the resources, and the entire population they'd swallowed up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] At that time, most of Ursus’s army was under the direct control of the military nobles. But the royalists were no slow thinkers. One fewer noble meant one less share of the spoils.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Then, once they’d disposed of those nobles, the silver made its way back to their pockets. The risk was high, but they had the capital to make that foray.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] And that’s why, during the Great Rebellion, past the cities all saving their own hides, the royalists probably inflicted the biggest losses on the families with a hand in the rebellions.
+    <t xml:space="preserve">[name="Talulah"] The principal force driving the Great Rebellion was the age before it... those Ursus military nobles who stood to gain everything from Ursus's epoch of relentless outward expansion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] After the new Emperor ascended, it was natural they'd spit out every city, all the resources, and the entire population they'd swallowed up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] At that time, most of Ursus's army was under the direct control of the military nobles. But the royalists were no slow thinkers. One fewer noble meant one less share of the spoils.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Then, once they'd disposed of those nobles, the silver made its way back to their pockets. The risk was high, but they had the capital to make that foray.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And that's why, during the Great Rebellion, past the cities all saving their own hides, the royalists probably inflicted the biggest losses on the families with a hand in the rebellions.
 </t>
   </si>
   <si>
@@ -992,15 +992,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Then the royalists would’ve been hanged and the Emperor placed under house arrest, consent forced by the prerogative of all those goddamned putrefying nobles littering the military.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] All the lordly dukes and their armies would’ve split Ursus up into countless smaller regimes—at least, internally, they were sure things would go that way.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] And don’t forget, back in reality, all those young officers on the rise after the Great Rebellion played out weren’t siding with the new Emperor. They were probably just siding with the money.
+    <t xml:space="preserve">[name="Talulah"] Then the royalists would've been hanged and the Emperor placed under house arrest, consent forced by the prerogative of all those goddamned putrefying nobles littering the military.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] All the lordly dukes and their armies would've split Ursus up into countless smaller regimes—at least, internally, they were sure things would go that way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And don't forget, back in reality, all those young officers on the rise after the Great Rebellion played out weren't siding with the new Emperor. They were probably just siding with the money.
 </t>
   </si>
   <si>
@@ -1012,51 +1012,51 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Fighter"] Hah. You have answers for everything, don’t you, Talulah?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] ...The one who taught me all this was so arrogant, he didn’t even care how much I took in. I could probably rattle that crap off without even thinking about it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Fighter"] That’s enough. God knows you’re plenty smart. Why come here, then? You already said any place a person could live is long gone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Fighter"] How’d you figure anything out of all their nonsense ramblings these past few days... how’d you figure out the Patrol Unit would be here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] All the villages in the area were planning to move. If a Catastrophe’s not coming, then that only leaves one reason.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] It’s the rotten patrolmen, coming to stay. If it were some army passing through, the villages wouldn’t dare think of moving.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] It should be because the harvest season’s just ended. The Patrol Unit will carry out their routine inspections now, making sure the tax collectors haven’t gone into the villages yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] The nearest city still operating is Shiraziberg. It’s mainly light industry. It’s only stopped over here to procure resources at most.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Most villages in the vicinity don’t have a landholder protecting them, so those rotting patrolmen have flocked in from all over. They must’ve seen things were ripe for the picking.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] ...Originally, they were just a ragtag organization of rogues tracking down the Infected. Now they’re all old geezers on a rampage who’ll stoop to any low.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Fighter"] Then let’s wipe them out. Our days here’ll be a lot more peaceful if we do. We should.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] We don’t have the capacity.
+    <t xml:space="preserve">[name="Infected Fighter"] Hah. You have answers for everything, don't you, Talulah?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ...The one who taught me all this was so arrogant, he didn't even care how much I took in. I could probably rattle that crap off without even thinking about it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] That's enough. God knows you're plenty smart. Why come here, then? You already said any place a person could live is long gone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] How'd you figure anything out of all their nonsense ramblings these past few days... how'd you figure out the Patrol Unit would be here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] All the villages in the area were planning to move. If a Catastrophe's not coming, then that only leaves one reason.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It's the rotten patrolmen, coming to stay. If it were some army passing through, the villages wouldn't dare think of moving.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It should be because the harvest season's just ended. The Patrol Unit will carry out their routine inspections now, making sure the tax collectors haven't gone into the villages yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] The nearest city still operating is Shiraziberg. It's mainly light industry. It's only stopped over here to procure resources at most.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Most villages in the vicinity don't have a landholder protecting them, so those rotting patrolmen have flocked in from all over. They must've seen things were ripe for the picking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ...Originally, they were just a ragtag organization of rogues tracking down the Infected. Now they're all old geezers on a rampage who'll stoop to any low.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Then let's wipe them out. Our days here'll be a lot more peaceful if we do. We should.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] We don't have the capacity.
 </t>
   </si>
   <si>
@@ -1076,15 +1076,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Fighter"] Infected guerrillas? ! Damn, that’s... man, Emperor above...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] It isn’t easy to make contact with them. We’ve been piling up information for three whole months, and now we’ve finally scooped an opportunity.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Fighter"] Didn’t care much when you said a few days ago we were looking for another group, but if I’d known you were looking for... for guerrilla fighters. Man.
+    <t xml:space="preserve">[name="Infected Fighter"] Infected guerrillas? ! Damn, that's... man, Emperor above...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It isn't easy to make contact with them. We've been piling up information for three whole months, and now we've finally scooped an opportunity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Didn't care much when you said a few days ago we were looking for another group, but if I'd known you were looking for... for guerrilla fighters. Man.
 </t>
   </si>
   <si>
@@ -1096,7 +1096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] If you want to survive out on the tundra, what you need is solid tactics and a lifestyle that keeps Ursus’s spies guessing at all times.
+    <t xml:space="preserve">[name="Talulah"] If you want to survive out on the tundra, what you need is solid tactics and a lifestyle that keeps Ursus's spies guessing at all times.
 </t>
   </si>
   <si>
@@ -1108,23 +1108,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] The guerrillas don’t want to be found, that’s the thing. Neither do they want to join up with anyone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] They accept the Infected into their own group, and train them to become fighters. They’re probably not exactly like I’m hoping, but the guerrillas are still undoubtedly going strong, with no signs of slowing down.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] —At the very least, there have been two small guerrilla bands who’ve exchanged resources with Infected settlements ten kilometers out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Even if the local Infected won’t talk, it wouldn’t have been the Army who left those fire pits outside their villages.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Okay, here’s what they’re here to do: destroy this freshly built sentry outpost, and make sure the patrolmen go down with it.
+    <t xml:space="preserve">[name="Talulah"] The guerrillas don't want to be found, that's the thing. Neither do they want to join up with anyone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] They accept the Infected into their own group, and train them to become fighters. They're probably not exactly like I'm hoping, but the guerrillas are still undoubtedly going strong, with no signs of slowing down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] —At the very least, there have been two small guerrilla bands who've exchanged resources with Infected settlements ten kilometers out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Even if the local Infected won't talk, it wouldn't have been the Army who left those fire pits outside their villages.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Okay, here's what they're here to do: destroy this freshly built sentry outpost, and make sure the patrolmen go down with it.
 </t>
   </si>
   <si>
@@ -1132,15 +1132,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] It’s a long way out from Shiraziberg, and the sentries have barely set up. They won’t hold out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] They’ll retreat. As long as they haven’t been annihilated by the guerrillas, that is.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Hide yourselves. If we run into two or three Patrol Unit bands at once, we won’t be able to take them.
+    <t xml:space="preserve">[name="Talulah"] It's a long way out from Shiraziberg, and the sentries have barely set up. They won't hold out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] They'll retreat. As long as they haven't been annihilated by the guerrillas, that is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Hide yourselves. If we run into two or three Patrol Unit bands at once, we won't be able to take them.
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Let me. If we want to make contact with the guerrillas, we’ll need to show them we’re not hostile. 
+    <t xml:space="preserve">[name="Talulah"] Let me. If we want to make contact with the guerrillas, we'll need to show them we're not hostile. 
 </t>
   </si>
   <si>
@@ -1160,7 +1160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I’ve never met people braver than you. And that’s why, to your fellow Infected compatriots, you are crucial. If they want to be alive down the line, that’s all the more reason they need you.
+    <t xml:space="preserve">[name="Talulah"] I've never met people braver than you. And that's why, to your fellow Infected compatriots, you are crucial. If they want to be alive down the line, that's all the more reason they need you.
 </t>
   </si>
   <si>
@@ -1172,27 +1172,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Fighter"] You’re still looking down on us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I’ve put in a great deal of thought into this decision. And everyone will be better off, by the way.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] So don’t run your mouth.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Fighter"] You’re just pissed, now!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Fighter"] Like we’re not all burning inside! If you think we don’t understand you, newsflash—it feels like you don’t bother getting what we think, either.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Fighter"] A 'decision' means nothing to us. We came back with you all the way from the Northwest... and it wasn’t for any 'decision.'
+    <t xml:space="preserve">[name="Infected Fighter"] You're still looking down on us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I've put in a great deal of thought into this decision. And everyone will be better off, by the way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] So don't run your mouth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] You're just pissed, now!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Like we're not all burning inside! If you think we don't understand you, newsflash—it feels like you don't bother getting what we think, either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] A 'decision' means nothing to us. We came back with you all the way from the Northwest... and it wasn't for any 'decision.'
 </t>
   </si>
   <si>
@@ -1200,19 +1200,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Fighter"] I don’t understand you well, but as far as I’m concerned, you’re different from the city-dwellers, or even the Infected in the mines.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Fighter"] You just don’t want us to die, right? Talulah, look at us. Think we’re scared? We’re no cowards!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Fighter"] Bet it never crossed your mind. Compared to drifting endlessly, we’re a hell of a lot more prepared to die with you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] What if I told you I saw this coming long ago, and just hoped you wouldn’t do it this way?
+    <t xml:space="preserve">[name="Infected Fighter"] I don't understand you well, but as far as I'm concerned, you're different from the city-dwellers, or even the Infected in the mines.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] You just don't want us to die, right? Talulah, look at us. Think we're scared? We're no cowards!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Bet it never crossed your mind. Compared to drifting endlessly, we're a hell of a lot more prepared to die with you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] What if I told you I saw this coming long ago, and just hoped you wouldn't do it this way?
 </t>
   </si>
   <si>
@@ -1220,11 +1220,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Because I won’t die.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] It’s okay. Let me go. Less casualties this way, too.  Besides, I’m—*chuckle* 'the Deathless.'
+    <t xml:space="preserve">[name="Talulah"] Because I won't die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It's okay. Let me go. Less casualties this way, too.  Besides, I'm—*chuckle* 'the Deathless.'
 </t>
   </si>
   <si>
@@ -1232,7 +1232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Fighter"] Wait... Talulah, like hell we let anyone look down on us! We don’t want them to think we’re begging for them. Just let us come with you!
+    <t xml:space="preserve">[name="Infected Fighter"] Wait... Talulah, like hell we let anyone look down on us! We don't want them to think we're begging for them. Just let us come with you!
 </t>
   </si>
   <si>
@@ -1240,11 +1240,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Only executioners rank people by the murder in them. You’ve already won respect for the fact that you stepped forward.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] If anyone looks down on you, that’s the one who truly deserves to be scorned.
+    <t xml:space="preserve">[name="Talulah"] Only executioners rank people by the murder in them. You've already won respect for the fact that you stepped forward.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] If anyone looks down on you, that's the one who truly deserves to be scorned.
 </t>
   </si>
   <si>
@@ -1256,7 +1256,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Fighter"] —Wait, Talulah! You’re seriously going with just a single sword?!
+    <t xml:space="preserve">[name="Infected Fighter"] —Wait, Talulah! You're seriously going with just a single sword?!
 </t>
   </si>
   <si>
@@ -1272,7 +1272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She didn’t run into the stomach-dropping terror that was the guerrillas. She didn’t catch sight of their iconic aegis. She never so much as glimpsed a single worn-out Ursus armament. Nor any of the fabled towering Sarkaz who walked with the guerrillas, even.
+    <t xml:space="preserve">She didn't run into the stomach-dropping terror that was the guerrillas. She didn't catch sight of their iconic aegis. She never so much as glimpsed a single worn-out Ursus armament. Nor any of the fabled towering Sarkaz who walked with the guerrillas, even.
 </t>
   </si>
   <si>
@@ -1284,11 +1284,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She lit a fire, and jumped into the last of the Patrol Unit’s watchtowers, out of the startled, certain gaze of a white-wrapped group of Yetis.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Careful the list doesn’t burn. It’s so cold, though. Too cold, she thought.
+    <t xml:space="preserve">She lit a fire, and jumped into the last of the Patrol Unit's watchtowers, out of the startled, certain gaze of a white-wrapped group of Yetis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Careful the list doesn't burn. It's so cold, though. Too cold, she thought.
 </t>
   </si>
   <si>
